--- a/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro.xlsx
+++ b/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Rio_de_Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D24E1A-8686-420D-B1D7-4E6E02C3A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FA460A-A92E-418D-9DFD-3374A3D07B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="195" yWindow="2730" windowWidth="28605" windowHeight="10125" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -1761,9 +1761,6 @@
     <t>"Bairro de Rio de Janeiro. Número B.089 - Bento Ribeiro"</t>
   </si>
   <si>
-    <t>"Bairro de Rio de Janeiro. Número B.064 - Todos Os Santos"</t>
-  </si>
-  <si>
     <t>"Bairro de Rio de Janeiro. Número B.067 - Água Santa"</t>
   </si>
   <si>
@@ -1833,9 +1830,6 @@
     <t>"Bairro de Rio de Janeiro. Número B.062 - Lins de Vasconcelos"</t>
   </si>
   <si>
-    <t>"Bairro de Rio de Janeiro. Número B.066 - Engenho de dentro"</t>
-  </si>
-  <si>
     <t>"Bairro de Rio de Janeiro. Número B.073 - Vicente de Carvalho"</t>
   </si>
   <si>
@@ -2590,6 +2584,12 @@
   </si>
   <si>
     <t>"Area de planejamento AP.05 de Rio de Janeiro"</t>
+  </si>
+  <si>
+    <t>"Bairro de Rio de Janeiro. Número B.064 - Todos os Santos"</t>
+  </si>
+  <si>
+    <t>"Bairro de Rio de Janeiro. Número B.066 - Engenho de Dentro"</t>
   </si>
 </sst>
 </file>
@@ -2890,14 +2890,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2915,6 +2907,14 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B17" s="17">
         <f ca="1">NOW()</f>
-        <v>45373.443254976853</v>
+        <v>45373.450071643521</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,8 +3411,8 @@
   <dimension ref="A1:J405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I209" sqref="I209"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3464,28 +3464,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>228</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>13</v>
@@ -3572,7 +3572,7 @@
         <v>340</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>24</v>
@@ -3630,7 +3630,7 @@
         <v>340</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
@@ -3659,7 +3659,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>24</v>
@@ -3688,7 +3688,7 @@
         <v>340</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>24</v>
@@ -3717,7 +3717,7 @@
         <v>340</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3725,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>24</v>
@@ -3746,7 +3746,7 @@
         <v>340</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,10 +3763,10 @@
         <v>228</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>294</v>
@@ -3775,7 +3775,7 @@
         <v>340</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3792,10 +3792,10 @@
         <v>228</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>295</v>
@@ -3804,7 +3804,7 @@
         <v>340</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,10 +3821,10 @@
         <v>228</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>296</v>
@@ -3833,7 +3833,7 @@
         <v>340</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,10 +3850,10 @@
         <v>228</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>297</v>
@@ -3862,7 +3862,7 @@
         <v>340</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,10 +3879,10 @@
         <v>228</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>298</v>
@@ -3891,7 +3891,7 @@
         <v>340</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3908,10 +3908,10 @@
         <v>228</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>299</v>
@@ -3920,7 +3920,7 @@
         <v>340</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>228</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>300</v>
@@ -3949,7 +3949,7 @@
         <v>340</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3966,10 +3966,10 @@
         <v>228</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>301</v>
@@ -3978,7 +3978,7 @@
         <v>340</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3995,10 +3995,10 @@
         <v>228</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>302</v>
@@ -4007,7 +4007,7 @@
         <v>340</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4024,10 +4024,10 @@
         <v>228</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>303</v>
@@ -4036,7 +4036,7 @@
         <v>340</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,10 +4053,10 @@
         <v>228</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>304</v>
@@ -4065,7 +4065,7 @@
         <v>340</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,10 +4082,10 @@
         <v>228</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>305</v>
@@ -4094,7 +4094,7 @@
         <v>340</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4111,10 +4111,10 @@
         <v>228</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>306</v>
@@ -4123,7 +4123,7 @@
         <v>340</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4140,10 +4140,10 @@
         <v>228</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>307</v>
@@ -4152,7 +4152,7 @@
         <v>340</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,10 +4169,10 @@
         <v>228</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>308</v>
@@ -4181,7 +4181,7 @@
         <v>340</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,10 +4198,10 @@
         <v>228</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>309</v>
@@ -4210,7 +4210,7 @@
         <v>340</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,10 +4227,10 @@
         <v>228</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>310</v>
@@ -4239,7 +4239,7 @@
         <v>340</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4256,10 @@
         <v>228</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>311</v>
@@ -4268,7 +4268,7 @@
         <v>340</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,10 +4285,10 @@
         <v>228</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>312</v>
@@ -4297,7 +4297,7 @@
         <v>340</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4314,10 +4314,10 @@
         <v>228</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>313</v>
@@ -4326,7 +4326,7 @@
         <v>340</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,10 +4343,10 @@
         <v>228</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>314</v>
@@ -4355,7 +4355,7 @@
         <v>340</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4372,10 +4372,10 @@
         <v>228</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>315</v>
@@ -4384,7 +4384,7 @@
         <v>340</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,10 +4401,10 @@
         <v>228</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>316</v>
@@ -4413,7 +4413,7 @@
         <v>340</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>228</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>317</v>
@@ -4442,7 +4442,7 @@
         <v>340</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4459,10 +4459,10 @@
         <v>228</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>318</v>
@@ -4471,7 +4471,7 @@
         <v>340</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4488,10 +4488,10 @@
         <v>228</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>319</v>
@@ -4500,7 +4500,7 @@
         <v>340</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,10 +4517,10 @@
         <v>228</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>320</v>
@@ -4529,7 +4529,7 @@
         <v>340</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4546,10 +4546,10 @@
         <v>228</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>321</v>
@@ -4558,7 +4558,7 @@
         <v>340</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,10 +4575,10 @@
         <v>228</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>322</v>
@@ -4587,7 +4587,7 @@
         <v>340</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4604,10 +4604,10 @@
         <v>228</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>323</v>
@@ -4616,7 +4616,7 @@
         <v>340</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,10 +4633,10 @@
         <v>228</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>324</v>
@@ -4645,7 +4645,7 @@
         <v>340</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4662,10 +4662,10 @@
         <v>228</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>325</v>
@@ -4674,7 +4674,7 @@
         <v>340</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,10 +4691,10 @@
         <v>228</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>326</v>
@@ -4703,7 +4703,7 @@
         <v>340</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="15" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>340</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J45" s="20"/>
     </row>
@@ -4762,7 +4762,7 @@
         <v>340</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J46" s="20"/>
     </row>
@@ -4792,7 +4792,7 @@
         <v>340</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J47" s="20"/>
     </row>
@@ -4822,7 +4822,7 @@
         <v>340</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J48" s="20"/>
     </row>
@@ -4852,7 +4852,7 @@
         <v>340</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J49" s="20"/>
     </row>
@@ -4882,7 +4882,7 @@
         <v>340</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J50" s="20"/>
     </row>
@@ -4912,7 +4912,7 @@
         <v>340</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J51" s="20"/>
     </row>
@@ -4942,7 +4942,7 @@
         <v>340</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J52" s="20"/>
     </row>
@@ -4972,7 +4972,7 @@
         <v>340</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J53" s="20"/>
     </row>
@@ -5002,7 +5002,7 @@
         <v>340</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J54" s="20"/>
     </row>
@@ -5032,7 +5032,7 @@
         <v>340</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J55" s="20"/>
     </row>
@@ -5062,7 +5062,7 @@
         <v>340</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J56" s="20"/>
     </row>
@@ -5092,7 +5092,7 @@
         <v>340</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J57" s="20"/>
     </row>
@@ -5122,7 +5122,7 @@
         <v>340</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J58" s="20"/>
     </row>
@@ -5152,7 +5152,7 @@
         <v>340</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J59" s="20"/>
     </row>
@@ -5182,7 +5182,7 @@
         <v>340</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J60" s="20"/>
     </row>
@@ -5212,7 +5212,7 @@
         <v>340</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J61" s="20"/>
     </row>
@@ -5242,7 +5242,7 @@
         <v>340</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J62" s="20"/>
     </row>
@@ -5272,7 +5272,7 @@
         <v>340</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J63" s="20"/>
     </row>
@@ -5302,7 +5302,7 @@
         <v>340</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J64" s="20"/>
     </row>
@@ -5332,7 +5332,7 @@
         <v>340</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J65" s="20"/>
     </row>
@@ -5362,7 +5362,7 @@
         <v>340</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J66" s="20"/>
     </row>
@@ -5392,7 +5392,7 @@
         <v>340</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J67" s="20"/>
     </row>
@@ -5422,7 +5422,7 @@
         <v>340</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J68" s="20"/>
     </row>
@@ -5452,7 +5452,7 @@
         <v>340</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J69" s="20"/>
     </row>
@@ -5482,7 +5482,7 @@
         <v>340</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J70" s="20"/>
     </row>
@@ -5512,7 +5512,7 @@
         <v>340</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J71" s="20"/>
     </row>
@@ -5542,7 +5542,7 @@
         <v>340</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J72" s="20"/>
     </row>
@@ -5572,7 +5572,7 @@
         <v>340</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J73" s="20"/>
     </row>
@@ -5602,7 +5602,7 @@
         <v>340</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J74" s="20"/>
     </row>
@@ -5632,7 +5632,7 @@
         <v>340</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J75" s="20"/>
     </row>
@@ -5662,7 +5662,7 @@
         <v>340</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J76" s="20"/>
     </row>
@@ -5692,7 +5692,7 @@
         <v>340</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J77" s="20"/>
     </row>
@@ -5722,7 +5722,7 @@
         <v>340</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J78" s="20"/>
     </row>
@@ -5752,7 +5752,7 @@
         <v>340</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J79" s="20"/>
     </row>
@@ -5782,7 +5782,7 @@
         <v>340</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J80" s="20"/>
     </row>
@@ -5812,7 +5812,7 @@
         <v>340</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J81" s="20"/>
     </row>
@@ -5842,7 +5842,7 @@
         <v>340</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J82" s="20"/>
     </row>
@@ -5872,7 +5872,7 @@
         <v>340</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J83" s="20"/>
     </row>
@@ -5902,7 +5902,7 @@
         <v>340</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J84" s="20"/>
     </row>
@@ -5932,7 +5932,7 @@
         <v>340</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J85" s="20"/>
     </row>
@@ -5962,7 +5962,7 @@
         <v>340</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J86" s="20"/>
     </row>
@@ -5992,7 +5992,7 @@
         <v>340</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J87" s="20"/>
     </row>
@@ -6022,7 +6022,7 @@
         <v>340</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J88" s="20"/>
     </row>
@@ -6052,7 +6052,7 @@
         <v>340</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J89" s="20"/>
     </row>
@@ -6082,7 +6082,7 @@
         <v>340</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J90" s="20"/>
     </row>
@@ -6112,7 +6112,7 @@
         <v>340</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J91" s="20"/>
     </row>
@@ -6142,7 +6142,7 @@
         <v>340</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J92" s="20"/>
     </row>
@@ -6172,7 +6172,7 @@
         <v>340</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J93" s="20"/>
     </row>
@@ -6202,7 +6202,7 @@
         <v>340</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J94" s="20"/>
     </row>
@@ -6232,7 +6232,7 @@
         <v>340</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J95" s="20"/>
     </row>
@@ -6262,7 +6262,7 @@
         <v>340</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J96" s="20"/>
     </row>
@@ -6292,7 +6292,7 @@
         <v>340</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J97" s="20"/>
     </row>
@@ -6322,7 +6322,7 @@
         <v>340</v>
       </c>
       <c r="I98" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J98" s="20"/>
     </row>
@@ -6352,7 +6352,7 @@
         <v>340</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J99" s="20"/>
     </row>
@@ -6382,7 +6382,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J100" s="20"/>
     </row>
@@ -6412,7 +6412,7 @@
         <v>340</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J101" s="20"/>
     </row>
@@ -6442,7 +6442,7 @@
         <v>340</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J102" s="20"/>
     </row>
@@ -6472,7 +6472,7 @@
         <v>340</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J103" s="20"/>
     </row>
@@ -6502,7 +6502,7 @@
         <v>340</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J104" s="20"/>
     </row>
@@ -6532,7 +6532,7 @@
         <v>340</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J105" s="20"/>
     </row>
@@ -6562,7 +6562,7 @@
         <v>340</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J106" s="20"/>
     </row>
@@ -6592,7 +6592,7 @@
         <v>340</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J107" s="20"/>
     </row>
@@ -6622,7 +6622,7 @@
         <v>340</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J108" s="20"/>
     </row>
@@ -6652,7 +6652,7 @@
         <v>340</v>
       </c>
       <c r="I109" s="19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J109" s="20"/>
     </row>
@@ -6682,7 +6682,7 @@
         <v>340</v>
       </c>
       <c r="I110" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J110" s="20"/>
     </row>
@@ -6712,7 +6712,7 @@
         <v>340</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J111" s="20"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>340</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J112" s="20"/>
     </row>
@@ -6772,7 +6772,7 @@
         <v>340</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J113" s="20"/>
     </row>
@@ -6802,7 +6802,7 @@
         <v>340</v>
       </c>
       <c r="I114" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J114" s="20"/>
     </row>
@@ -6832,7 +6832,7 @@
         <v>340</v>
       </c>
       <c r="I115" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J115" s="20"/>
     </row>
@@ -6862,7 +6862,7 @@
         <v>340</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J116" s="20"/>
     </row>
@@ -6892,7 +6892,7 @@
         <v>340</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J117" s="20"/>
     </row>
@@ -6922,7 +6922,7 @@
         <v>340</v>
       </c>
       <c r="I118" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J118" s="20"/>
     </row>
@@ -6952,7 +6952,7 @@
         <v>340</v>
       </c>
       <c r="I119" s="19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J119" s="20"/>
     </row>
@@ -6982,7 +6982,7 @@
         <v>340</v>
       </c>
       <c r="I120" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J120" s="20"/>
     </row>
@@ -7012,7 +7012,7 @@
         <v>340</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J121" s="20"/>
     </row>
@@ -7042,7 +7042,7 @@
         <v>340</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J122" s="20"/>
     </row>
@@ -7072,7 +7072,7 @@
         <v>340</v>
       </c>
       <c r="I123" s="19" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J123" s="20"/>
     </row>
@@ -7102,7 +7102,7 @@
         <v>340</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J124" s="20"/>
     </row>
@@ -7132,7 +7132,7 @@
         <v>340</v>
       </c>
       <c r="I125" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J125" s="20"/>
     </row>
@@ -7162,7 +7162,7 @@
         <v>340</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J126" s="20"/>
     </row>
@@ -7192,7 +7192,7 @@
         <v>340</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J127" s="20"/>
     </row>
@@ -7222,7 +7222,7 @@
         <v>340</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J128" s="20"/>
     </row>
@@ -7252,7 +7252,7 @@
         <v>340</v>
       </c>
       <c r="I129" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J129" s="20"/>
     </row>
@@ -7282,7 +7282,7 @@
         <v>340</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J130" s="20"/>
     </row>
@@ -7312,7 +7312,7 @@
         <v>340</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J131" s="20"/>
     </row>
@@ -7342,7 +7342,7 @@
         <v>340</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J132" s="20"/>
     </row>
@@ -7372,7 +7372,7 @@
         <v>340</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J133" s="20"/>
     </row>
@@ -7402,7 +7402,7 @@
         <v>340</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J134" s="20"/>
     </row>
@@ -7432,7 +7432,7 @@
         <v>340</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J135" s="20"/>
     </row>
@@ -7462,7 +7462,7 @@
         <v>340</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J136" s="20"/>
     </row>
@@ -7492,7 +7492,7 @@
         <v>340</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J137" s="20"/>
     </row>
@@ -7522,7 +7522,7 @@
         <v>340</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J138" s="20"/>
     </row>
@@ -7552,7 +7552,7 @@
         <v>340</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J139" s="20"/>
     </row>
@@ -7582,7 +7582,7 @@
         <v>340</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J140" s="20"/>
     </row>
@@ -7612,7 +7612,7 @@
         <v>340</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J141" s="20"/>
     </row>
@@ -7642,7 +7642,7 @@
         <v>340</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J142" s="20"/>
     </row>
@@ -7672,7 +7672,7 @@
         <v>340</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J143" s="20"/>
     </row>
@@ -7702,7 +7702,7 @@
         <v>340</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J144" s="20"/>
     </row>
@@ -7732,7 +7732,7 @@
         <v>340</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J145" s="20"/>
     </row>
@@ -7762,7 +7762,7 @@
         <v>340</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J146" s="20"/>
     </row>
@@ -7792,7 +7792,7 @@
         <v>340</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J147" s="20"/>
     </row>
@@ -7822,7 +7822,7 @@
         <v>340</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J148" s="20"/>
     </row>
@@ -7852,7 +7852,7 @@
         <v>340</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J149" s="20"/>
     </row>
@@ -7882,7 +7882,7 @@
         <v>340</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J150" s="20"/>
     </row>
@@ -7912,7 +7912,7 @@
         <v>340</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J151" s="20"/>
     </row>
@@ -7942,7 +7942,7 @@
         <v>340</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J152" s="20"/>
     </row>
@@ -7972,7 +7972,7 @@
         <v>340</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J153" s="20"/>
     </row>
@@ -8002,7 +8002,7 @@
         <v>340</v>
       </c>
       <c r="I154" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J154" s="20"/>
     </row>
@@ -8032,7 +8032,7 @@
         <v>340</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J155" s="20"/>
     </row>
@@ -8062,7 +8062,7 @@
         <v>340</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J156" s="20"/>
     </row>
@@ -8092,7 +8092,7 @@
         <v>340</v>
       </c>
       <c r="I157" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J157" s="20"/>
     </row>
@@ -8122,7 +8122,7 @@
         <v>340</v>
       </c>
       <c r="I158" s="19" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J158" s="20"/>
     </row>
@@ -8152,7 +8152,7 @@
         <v>340</v>
       </c>
       <c r="I159" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J159" s="20"/>
     </row>
@@ -8182,7 +8182,7 @@
         <v>340</v>
       </c>
       <c r="I160" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J160" s="20"/>
     </row>
@@ -8212,7 +8212,7 @@
         <v>340</v>
       </c>
       <c r="I161" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J161" s="20"/>
     </row>
@@ -8242,7 +8242,7 @@
         <v>340</v>
       </c>
       <c r="I162" s="19" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J162" s="20"/>
     </row>
@@ -8272,7 +8272,7 @@
         <v>340</v>
       </c>
       <c r="I163" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J163" s="20"/>
     </row>
@@ -8302,7 +8302,7 @@
         <v>340</v>
       </c>
       <c r="I164" s="19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J164" s="20"/>
     </row>
@@ -8332,7 +8332,7 @@
         <v>340</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J165" s="20"/>
     </row>
@@ -8362,7 +8362,7 @@
         <v>340</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J166" s="20"/>
     </row>
@@ -8392,7 +8392,7 @@
         <v>340</v>
       </c>
       <c r="I167" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J167" s="20"/>
     </row>
@@ -8422,7 +8422,7 @@
         <v>340</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J168" s="20"/>
     </row>
@@ -8452,7 +8452,7 @@
         <v>340</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J169" s="20"/>
     </row>
@@ -8482,7 +8482,7 @@
         <v>340</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J170" s="20"/>
     </row>
@@ -8512,7 +8512,7 @@
         <v>340</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J171" s="20"/>
     </row>
@@ -8542,7 +8542,7 @@
         <v>340</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J172" s="20"/>
     </row>
@@ -8572,7 +8572,7 @@
         <v>340</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J173" s="20"/>
     </row>
@@ -8602,7 +8602,7 @@
         <v>340</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J174" s="20"/>
     </row>
@@ -8632,7 +8632,7 @@
         <v>340</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J175" s="20"/>
     </row>
@@ -8662,7 +8662,7 @@
         <v>340</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J176" s="20"/>
     </row>
@@ -8692,7 +8692,7 @@
         <v>340</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J177" s="20"/>
     </row>
@@ -8722,7 +8722,7 @@
         <v>340</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J178" s="20"/>
     </row>
@@ -8752,7 +8752,7 @@
         <v>340</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J179" s="20"/>
     </row>
@@ -8782,7 +8782,7 @@
         <v>340</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J180" s="20"/>
     </row>
@@ -8812,7 +8812,7 @@
         <v>340</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J181" s="20"/>
     </row>
@@ -8842,7 +8842,7 @@
         <v>340</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J182" s="20"/>
     </row>
@@ -8872,7 +8872,7 @@
         <v>340</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J183" s="20"/>
     </row>
@@ -8902,7 +8902,7 @@
         <v>340</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J184" s="20"/>
     </row>
@@ -8932,7 +8932,7 @@
         <v>340</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J185" s="20"/>
     </row>
@@ -8962,7 +8962,7 @@
         <v>340</v>
       </c>
       <c r="I186" s="19" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J186" s="20"/>
     </row>
@@ -8992,7 +8992,7 @@
         <v>340</v>
       </c>
       <c r="I187" s="19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J187" s="20"/>
     </row>
@@ -9022,7 +9022,7 @@
         <v>340</v>
       </c>
       <c r="I188" s="19" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J188" s="20"/>
     </row>
@@ -9052,7 +9052,7 @@
         <v>340</v>
       </c>
       <c r="I189" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J189" s="20"/>
     </row>
@@ -9082,7 +9082,7 @@
         <v>340</v>
       </c>
       <c r="I190" s="19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J190" s="20"/>
     </row>
@@ -9112,7 +9112,7 @@
         <v>340</v>
       </c>
       <c r="I191" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J191" s="20"/>
     </row>
@@ -9142,7 +9142,7 @@
         <v>340</v>
       </c>
       <c r="I192" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J192" s="20"/>
     </row>
@@ -9172,7 +9172,7 @@
         <v>340</v>
       </c>
       <c r="I193" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J193" s="20"/>
     </row>
@@ -9202,7 +9202,7 @@
         <v>340</v>
       </c>
       <c r="I194" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J194" s="20"/>
     </row>
@@ -9232,7 +9232,7 @@
         <v>340</v>
       </c>
       <c r="I195" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J195" s="20"/>
     </row>
@@ -9262,7 +9262,7 @@
         <v>340</v>
       </c>
       <c r="I196" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J196" s="20"/>
     </row>
@@ -9292,7 +9292,7 @@
         <v>340</v>
       </c>
       <c r="I197" s="19" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J197" s="20"/>
     </row>
@@ -9322,7 +9322,7 @@
         <v>340</v>
       </c>
       <c r="I198" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J198" s="20"/>
     </row>
@@ -9352,7 +9352,7 @@
         <v>340</v>
       </c>
       <c r="I199" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J199" s="20"/>
     </row>
@@ -9382,7 +9382,7 @@
         <v>340</v>
       </c>
       <c r="I200" s="19" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J200" s="20"/>
     </row>
@@ -9412,7 +9412,7 @@
         <v>340</v>
       </c>
       <c r="I201" s="19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J201" s="20"/>
     </row>
@@ -9442,7 +9442,7 @@
         <v>340</v>
       </c>
       <c r="I202" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J202" s="20"/>
     </row>
@@ -9472,7 +9472,7 @@
         <v>340</v>
       </c>
       <c r="I203" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J203" s="20"/>
     </row>
@@ -9502,7 +9502,7 @@
         <v>340</v>
       </c>
       <c r="I204" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J204" s="20"/>
     </row>
@@ -9532,7 +9532,7 @@
         <v>340</v>
       </c>
       <c r="I205" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J205" s="20"/>
     </row>
@@ -9562,7 +9562,7 @@
         <v>340</v>
       </c>
       <c r="I206" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J206" s="20"/>
     </row>
@@ -9592,7 +9592,7 @@
         <v>340</v>
       </c>
       <c r="I207" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J207" s="20"/>
     </row>
@@ -9622,7 +9622,7 @@
         <v>340</v>
       </c>
       <c r="I208" s="19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J208" s="20"/>
     </row>
@@ -9652,7 +9652,7 @@
         <v>340</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9681,7 +9681,7 @@
         <v>340</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9710,7 +9710,7 @@
         <v>340</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>340</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9768,7 +9768,7 @@
         <v>340</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9797,7 +9797,7 @@
         <v>340</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9826,7 +9826,7 @@
         <v>340</v>
       </c>
       <c r="I215" s="7" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9855,7 +9855,7 @@
         <v>340</v>
       </c>
       <c r="I216" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
         <v>340</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9913,7 +9913,7 @@
         <v>340</v>
       </c>
       <c r="I218" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,7 +9942,7 @@
         <v>340</v>
       </c>
       <c r="I219" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9971,7 +9971,7 @@
         <v>340</v>
       </c>
       <c r="I220" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>340</v>
       </c>
       <c r="I221" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10029,7 +10029,7 @@
         <v>340</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10058,7 +10058,7 @@
         <v>340</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10087,7 +10087,7 @@
         <v>340</v>
       </c>
       <c r="I224" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10116,7 +10116,7 @@
         <v>340</v>
       </c>
       <c r="I225" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10145,7 +10145,7 @@
         <v>340</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10174,7 +10174,7 @@
         <v>340</v>
       </c>
       <c r="I227" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10203,7 +10203,7 @@
         <v>340</v>
       </c>
       <c r="I228" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>340</v>
       </c>
       <c r="I229" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
         <v>340</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
         <v>340</v>
       </c>
       <c r="I231" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>340</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10348,7 +10348,7 @@
         <v>340</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10377,7 +10377,7 @@
         <v>340</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>340</v>
       </c>
       <c r="I235" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10435,7 +10435,7 @@
         <v>340</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10464,7 +10464,7 @@
         <v>340</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
         <v>340</v>
       </c>
       <c r="I238" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,7 +10522,7 @@
         <v>340</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10551,7 +10551,7 @@
         <v>340</v>
       </c>
       <c r="I240" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10580,7 +10580,7 @@
         <v>340</v>
       </c>
       <c r="I241" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,7 +10600,7 @@
         <v>189</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G242" s="14" t="s">
         <v>407</v>
@@ -10629,7 +10629,7 @@
         <v>190</v>
       </c>
       <c r="F243" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G243" s="14" t="s">
         <v>229</v>
@@ -10658,7 +10658,7 @@
         <v>189</v>
       </c>
       <c r="F244" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G244" s="14" t="s">
         <v>403</v>
@@ -10667,7 +10667,7 @@
         <v>340</v>
       </c>
       <c r="I244" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10687,7 +10687,7 @@
         <v>221</v>
       </c>
       <c r="F245" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G245" s="14" t="s">
         <v>367</v>
@@ -10696,7 +10696,7 @@
         <v>340</v>
       </c>
       <c r="I245" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10716,7 +10716,7 @@
         <v>191</v>
       </c>
       <c r="F246" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G246" s="14" t="s">
         <v>230</v>
@@ -10745,7 +10745,7 @@
         <v>222</v>
       </c>
       <c r="F247" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G247" s="14" t="s">
         <v>370</v>
@@ -10774,7 +10774,7 @@
         <v>192</v>
       </c>
       <c r="F248" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G248" s="14" t="s">
         <v>231</v>
@@ -10803,7 +10803,7 @@
         <v>193</v>
       </c>
       <c r="F249" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G249" s="14" t="s">
         <v>436</v>
@@ -10832,7 +10832,7 @@
         <v>194</v>
       </c>
       <c r="F250" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G250" s="14" t="s">
         <v>232</v>
@@ -10861,7 +10861,7 @@
         <v>195</v>
       </c>
       <c r="F251" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G251" s="14" t="s">
         <v>233</v>
@@ -10870,7 +10870,7 @@
         <v>340</v>
       </c>
       <c r="I251" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10890,7 +10890,7 @@
         <v>196</v>
       </c>
       <c r="F252" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G252" s="14" t="s">
         <v>234</v>
@@ -10899,7 +10899,7 @@
         <v>340</v>
       </c>
       <c r="I252" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
         <v>190</v>
       </c>
       <c r="F253" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G253" s="14" t="s">
         <v>235</v>
@@ -10948,7 +10948,7 @@
         <v>220</v>
       </c>
       <c r="F254" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G254" s="14" t="s">
         <v>343</v>
@@ -10977,7 +10977,7 @@
         <v>197</v>
       </c>
       <c r="F255" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G255" s="14" t="s">
         <v>427</v>
@@ -11006,7 +11006,7 @@
         <v>198</v>
       </c>
       <c r="F256" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G256" s="14" t="s">
         <v>374</v>
@@ -11035,7 +11035,7 @@
         <v>217</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G257" s="14" t="s">
         <v>352</v>
@@ -11064,7 +11064,7 @@
         <v>199</v>
       </c>
       <c r="F258" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G258" s="14" t="s">
         <v>379</v>
@@ -11073,7 +11073,7 @@
         <v>340</v>
       </c>
       <c r="I258" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,7 +11093,7 @@
         <v>189</v>
       </c>
       <c r="F259" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G259" s="14" t="s">
         <v>401</v>
@@ -11122,7 +11122,7 @@
         <v>193</v>
       </c>
       <c r="F260" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G260" s="14" t="s">
         <v>432</v>
@@ -11151,7 +11151,7 @@
         <v>214</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G261" s="14" t="s">
         <v>373</v>
@@ -11180,7 +11180,7 @@
         <v>195</v>
       </c>
       <c r="F262" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G262" s="14" t="s">
         <v>236</v>
@@ -11209,7 +11209,7 @@
         <v>197</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G263" s="14" t="s">
         <v>415</v>
@@ -11238,7 +11238,7 @@
         <v>223</v>
       </c>
       <c r="F264" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G264" s="14" t="s">
         <v>237</v>
@@ -11247,7 +11247,7 @@
         <v>340</v>
       </c>
       <c r="I264" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
         <v>201</v>
       </c>
       <c r="F265" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G265" s="14" t="s">
         <v>238</v>
@@ -11296,7 +11296,7 @@
         <v>197</v>
       </c>
       <c r="F266" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G266" s="14" t="s">
         <v>420</v>
@@ -11325,7 +11325,7 @@
         <v>217</v>
       </c>
       <c r="F267" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G267" s="14" t="s">
         <v>349</v>
@@ -11354,7 +11354,7 @@
         <v>216</v>
       </c>
       <c r="F268" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G268" s="14" t="s">
         <v>395</v>
@@ -11383,7 +11383,7 @@
         <v>197</v>
       </c>
       <c r="F269" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G269" s="14" t="s">
         <v>418</v>
@@ -11412,7 +11412,7 @@
         <v>215</v>
       </c>
       <c r="F270" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G270" s="14" t="s">
         <v>384</v>
@@ -11441,7 +11441,7 @@
         <v>200</v>
       </c>
       <c r="F271" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G271" s="14" t="s">
         <v>239</v>
@@ -11450,7 +11450,7 @@
         <v>340</v>
       </c>
       <c r="I271" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11470,7 +11470,7 @@
         <v>216</v>
       </c>
       <c r="F272" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G272" s="14" t="s">
         <v>417</v>
@@ -11499,7 +11499,7 @@
         <v>193</v>
       </c>
       <c r="F273" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G273" s="14" t="s">
         <v>240</v>
@@ -11508,7 +11508,7 @@
         <v>340</v>
       </c>
       <c r="I273" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11528,7 +11528,7 @@
         <v>193</v>
       </c>
       <c r="F274" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G274" s="14" t="s">
         <v>435</v>
@@ -11557,7 +11557,7 @@
         <v>190</v>
       </c>
       <c r="F275" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G275" s="14" t="s">
         <v>241</v>
@@ -11586,7 +11586,7 @@
         <v>202</v>
       </c>
       <c r="F276" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G276" s="14" t="s">
         <v>414</v>
@@ -11615,7 +11615,7 @@
         <v>203</v>
       </c>
       <c r="F277" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G277" s="14" t="s">
         <v>242</v>
@@ -11624,7 +11624,7 @@
         <v>340</v>
       </c>
       <c r="I277" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11644,7 +11644,7 @@
         <v>218</v>
       </c>
       <c r="F278" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G278" s="14" t="s">
         <v>356</v>
@@ -11673,7 +11673,7 @@
         <v>204</v>
       </c>
       <c r="F279" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G279" s="14" t="s">
         <v>380</v>
@@ -11702,7 +11702,7 @@
         <v>217</v>
       </c>
       <c r="F280" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G280" s="14" t="s">
         <v>350</v>
@@ -11711,7 +11711,7 @@
         <v>340</v>
       </c>
       <c r="I280" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11731,7 +11731,7 @@
         <v>201</v>
       </c>
       <c r="F281" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G281" s="14" t="s">
         <v>243</v>
@@ -11760,7 +11760,7 @@
         <v>190</v>
       </c>
       <c r="F282" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G282" s="14" t="s">
         <v>244</v>
@@ -11789,7 +11789,7 @@
         <v>192</v>
       </c>
       <c r="F283" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G283" s="14" t="s">
         <v>245</v>
@@ -11818,7 +11818,7 @@
         <v>205</v>
       </c>
       <c r="F284" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G284" s="14" t="s">
         <v>388</v>
@@ -11847,7 +11847,7 @@
         <v>223</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G285" s="14" t="s">
         <v>246</v>
@@ -11876,7 +11876,7 @@
         <v>189</v>
       </c>
       <c r="F286" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G286" s="14" t="s">
         <v>404</v>
@@ -11905,7 +11905,7 @@
         <v>197</v>
       </c>
       <c r="F287" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G287" s="14" t="s">
         <v>419</v>
@@ -11934,7 +11934,7 @@
         <v>205</v>
       </c>
       <c r="F288" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G288" s="14" t="s">
         <v>390</v>
@@ -11943,7 +11943,7 @@
         <v>340</v>
       </c>
       <c r="I288" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v>189</v>
       </c>
       <c r="F289" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G289" s="14" t="s">
         <v>402</v>
@@ -11972,7 +11972,7 @@
         <v>340</v>
       </c>
       <c r="I289" s="22" t="s">
-        <v>597</v>
+        <v>849</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11992,7 +11992,7 @@
         <v>189</v>
       </c>
       <c r="F290" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G290" s="14" t="s">
         <v>397</v>
@@ -12021,7 +12021,7 @@
         <v>216</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G291" s="14" t="s">
         <v>428</v>
@@ -12050,7 +12050,7 @@
         <v>217</v>
       </c>
       <c r="F292" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G292" s="14" t="s">
         <v>346</v>
@@ -12079,7 +12079,7 @@
         <v>193</v>
       </c>
       <c r="F293" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G293" s="14" t="s">
         <v>437</v>
@@ -12108,7 +12108,7 @@
         <v>192</v>
       </c>
       <c r="F294" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G294" s="14" t="s">
         <v>247</v>
@@ -12137,7 +12137,7 @@
         <v>193</v>
       </c>
       <c r="F295" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G295" s="14" t="s">
         <v>248</v>
@@ -12166,7 +12166,7 @@
         <v>214</v>
       </c>
       <c r="F296" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G296" s="14" t="s">
         <v>351</v>
@@ -12195,7 +12195,7 @@
         <v>192</v>
       </c>
       <c r="F297" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G297" s="14" t="s">
         <v>249</v>
@@ -12224,7 +12224,7 @@
         <v>219</v>
       </c>
       <c r="F298" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G298" s="14" t="s">
         <v>361</v>
@@ -12253,7 +12253,7 @@
         <v>194</v>
       </c>
       <c r="F299" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G299" s="14" t="s">
         <v>250</v>
@@ -12282,7 +12282,7 @@
         <v>217</v>
       </c>
       <c r="F300" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G300" s="14" t="s">
         <v>347</v>
@@ -12311,7 +12311,7 @@
         <v>222</v>
       </c>
       <c r="F301" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G301" s="14" t="s">
         <v>371</v>
@@ -12340,7 +12340,7 @@
         <v>195</v>
       </c>
       <c r="F302" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G302" s="14" t="s">
         <v>251</v>
@@ -12369,7 +12369,7 @@
         <v>191</v>
       </c>
       <c r="F303" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G303" s="14" t="s">
         <v>252</v>
@@ -12398,7 +12398,7 @@
         <v>196</v>
       </c>
       <c r="F304" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G304" s="14" t="s">
         <v>253</v>
@@ -12427,7 +12427,7 @@
         <v>205</v>
       </c>
       <c r="F305" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G305" s="14" t="s">
         <v>385</v>
@@ -12456,7 +12456,7 @@
         <v>197</v>
       </c>
       <c r="F306" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G306" s="14" t="s">
         <v>425</v>
@@ -12485,7 +12485,7 @@
         <v>217</v>
       </c>
       <c r="F307" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G307" s="14" t="s">
         <v>353</v>
@@ -12514,7 +12514,7 @@
         <v>196</v>
       </c>
       <c r="F308" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G308" s="14" t="s">
         <v>254</v>
@@ -12523,7 +12523,7 @@
         <v>340</v>
       </c>
       <c r="I308" s="22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12543,7 +12543,7 @@
         <v>205</v>
       </c>
       <c r="F309" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G309" s="14" t="s">
         <v>389</v>
@@ -12572,7 +12572,7 @@
         <v>201</v>
       </c>
       <c r="F310" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G310" s="14" t="s">
         <v>255</v>
@@ -12601,7 +12601,7 @@
         <v>219</v>
       </c>
       <c r="F311" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G311" s="14" t="s">
         <v>357</v>
@@ -12630,7 +12630,7 @@
         <v>202</v>
       </c>
       <c r="F312" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G312" s="14" t="s">
         <v>413</v>
@@ -12659,7 +12659,7 @@
         <v>195</v>
       </c>
       <c r="F313" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G313" s="14" t="s">
         <v>256</v>
@@ -12688,7 +12688,7 @@
         <v>194</v>
       </c>
       <c r="F314" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G314" s="14" t="s">
         <v>257</v>
@@ -12717,7 +12717,7 @@
         <v>189</v>
       </c>
       <c r="F315" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G315" s="14" t="s">
         <v>386</v>
@@ -12746,7 +12746,7 @@
         <v>192</v>
       </c>
       <c r="F316" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G316" s="14" t="s">
         <v>258</v>
@@ -12775,7 +12775,7 @@
         <v>206</v>
       </c>
       <c r="F317" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G317" s="14" t="s">
         <v>259</v>
@@ -12804,7 +12804,7 @@
         <v>204</v>
       </c>
       <c r="F318" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G318" s="14" t="s">
         <v>383</v>
@@ -12833,7 +12833,7 @@
         <v>219</v>
       </c>
       <c r="F319" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G319" s="14" t="s">
         <v>360</v>
@@ -12862,7 +12862,7 @@
         <v>193</v>
       </c>
       <c r="F320" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G320" s="14" t="s">
         <v>260</v>
@@ -12891,7 +12891,7 @@
         <v>193</v>
       </c>
       <c r="F321" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G321" s="14" t="s">
         <v>438</v>
@@ -12920,7 +12920,7 @@
         <v>223</v>
       </c>
       <c r="F322" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G322" s="14" t="s">
         <v>261</v>
@@ -12929,7 +12929,7 @@
         <v>340</v>
       </c>
       <c r="I322" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12949,7 +12949,7 @@
         <v>195</v>
       </c>
       <c r="F323" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G323" s="14" t="s">
         <v>262</v>
@@ -12978,7 +12978,7 @@
         <v>219</v>
       </c>
       <c r="F324" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G324" s="14" t="s">
         <v>359</v>
@@ -13007,7 +13007,7 @@
         <v>215</v>
       </c>
       <c r="F325" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G325" s="14" t="s">
         <v>263</v>
@@ -13036,7 +13036,7 @@
         <v>217</v>
       </c>
       <c r="F326" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G326" s="14" t="s">
         <v>348</v>
@@ -13065,7 +13065,7 @@
         <v>219</v>
       </c>
       <c r="F327" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G327" s="14" t="s">
         <v>358</v>
@@ -13094,7 +13094,7 @@
         <v>218</v>
       </c>
       <c r="F328" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G328" s="14" t="s">
         <v>355</v>
@@ -13123,7 +13123,7 @@
         <v>189</v>
       </c>
       <c r="F329" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G329" s="14" t="s">
         <v>398</v>
@@ -13132,7 +13132,7 @@
         <v>340</v>
       </c>
       <c r="I329" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13152,7 @@
         <v>197</v>
       </c>
       <c r="F330" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G330" s="14" t="s">
         <v>421</v>
@@ -13181,7 +13181,7 @@
         <v>223</v>
       </c>
       <c r="F331" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G331" s="14" t="s">
         <v>264</v>
@@ -13210,7 +13210,7 @@
         <v>220</v>
       </c>
       <c r="F332" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G332" s="14" t="s">
         <v>342</v>
@@ -13239,7 +13239,7 @@
         <v>198</v>
       </c>
       <c r="F333" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G333" s="14" t="s">
         <v>372</v>
@@ -13268,7 +13268,7 @@
         <v>222</v>
       </c>
       <c r="F334" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G334" s="14" t="s">
         <v>368</v>
@@ -13297,7 +13297,7 @@
         <v>207</v>
       </c>
       <c r="F335" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G335" s="14" t="s">
         <v>265</v>
@@ -13326,7 +13326,7 @@
         <v>197</v>
       </c>
       <c r="F336" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G336" s="14" t="s">
         <v>429</v>
@@ -13355,7 +13355,7 @@
         <v>205</v>
       </c>
       <c r="F337" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G337" s="14" t="s">
         <v>387</v>
@@ -13364,7 +13364,7 @@
         <v>340</v>
       </c>
       <c r="I337" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13384,7 +13384,7 @@
         <v>189</v>
       </c>
       <c r="F338" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G338" s="14" t="s">
         <v>399</v>
@@ -13413,7 +13413,7 @@
         <v>193</v>
       </c>
       <c r="F339" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G339" s="14" t="s">
         <v>266</v>
@@ -13442,7 +13442,7 @@
         <v>198</v>
       </c>
       <c r="F340" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G340" s="14" t="s">
         <v>376</v>
@@ -13471,7 +13471,7 @@
         <v>197</v>
       </c>
       <c r="F341" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G341" s="14" t="s">
         <v>426</v>
@@ -13500,7 +13500,7 @@
         <v>208</v>
       </c>
       <c r="F342" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G342" s="14" t="s">
         <v>267</v>
@@ -13529,7 +13529,7 @@
         <v>194</v>
       </c>
       <c r="F343" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G343" s="14" t="s">
         <v>268</v>
@@ -13558,7 +13558,7 @@
         <v>209</v>
       </c>
       <c r="F344" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G344" s="14" t="s">
         <v>344</v>
@@ -13587,7 +13587,7 @@
         <v>204</v>
       </c>
       <c r="F345" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G345" s="14" t="s">
         <v>381</v>
@@ -13596,7 +13596,7 @@
         <v>340</v>
       </c>
       <c r="I345" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>191</v>
       </c>
       <c r="F346" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G346" s="14" t="s">
         <v>269</v>
@@ -13645,7 +13645,7 @@
         <v>190</v>
       </c>
       <c r="F347" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G347" s="14" t="s">
         <v>270</v>
@@ -13674,7 +13674,7 @@
         <v>190</v>
       </c>
       <c r="F348" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G348" s="14" t="s">
         <v>271</v>
@@ -13703,7 +13703,7 @@
         <v>192</v>
       </c>
       <c r="F349" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G349" s="14" t="s">
         <v>272</v>
@@ -13732,7 +13732,7 @@
         <v>196</v>
       </c>
       <c r="F350" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G350" s="14" t="s">
         <v>273</v>
@@ -13741,7 +13741,7 @@
         <v>340</v>
       </c>
       <c r="I350" s="22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v>199</v>
       </c>
       <c r="F351" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G351" s="14" t="s">
         <v>377</v>
@@ -13790,7 +13790,7 @@
         <v>199</v>
       </c>
       <c r="F352" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G352" s="14" t="s">
         <v>378</v>
@@ -13819,7 +13819,7 @@
         <v>189</v>
       </c>
       <c r="F353" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G353" s="14" t="s">
         <v>405</v>
@@ -13848,7 +13848,7 @@
         <v>189</v>
       </c>
       <c r="F354" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G354" s="14" t="s">
         <v>408</v>
@@ -13877,7 +13877,7 @@
         <v>193</v>
       </c>
       <c r="F355" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G355" s="14" t="s">
         <v>433</v>
@@ -13906,7 +13906,7 @@
         <v>193</v>
       </c>
       <c r="F356" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G356" s="14" t="s">
         <v>274</v>
@@ -13935,7 +13935,7 @@
         <v>221</v>
       </c>
       <c r="F357" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G357" s="14" t="s">
         <v>365</v>
@@ -13944,7 +13944,7 @@
         <v>340</v>
       </c>
       <c r="I357" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13964,7 +13964,7 @@
         <v>192</v>
       </c>
       <c r="F358" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G358" s="14" t="s">
         <v>275</v>
@@ -13973,7 +13973,7 @@
         <v>340</v>
       </c>
       <c r="I358" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>193</v>
       </c>
       <c r="F359" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G359" s="14" t="s">
         <v>434</v>
@@ -14002,7 +14002,7 @@
         <v>340</v>
       </c>
       <c r="I359" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14022,7 +14022,7 @@
         <v>197</v>
       </c>
       <c r="F360" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G360" s="14" t="s">
         <v>416</v>
@@ -14051,7 +14051,7 @@
         <v>198</v>
       </c>
       <c r="F361" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G361" s="14" t="s">
         <v>375</v>
@@ -14080,7 +14080,7 @@
         <v>223</v>
       </c>
       <c r="F362" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G362" s="14" t="s">
         <v>276</v>
@@ -14109,7 +14109,7 @@
         <v>195</v>
       </c>
       <c r="F363" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G363" s="14" t="s">
         <v>277</v>
@@ -14118,7 +14118,7 @@
         <v>340</v>
       </c>
       <c r="I363" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14138,7 +14138,7 @@
         <v>189</v>
       </c>
       <c r="F364" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G364" s="14" t="s">
         <v>394</v>
@@ -14167,7 +14167,7 @@
         <v>193</v>
       </c>
       <c r="F365" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G365" s="14" t="s">
         <v>430</v>
@@ -14196,7 +14196,7 @@
         <v>191</v>
       </c>
       <c r="F366" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G366" s="14" t="s">
         <v>278</v>
@@ -14205,7 +14205,7 @@
         <v>340</v>
       </c>
       <c r="I366" s="22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
         <v>216</v>
       </c>
       <c r="F367" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G367" s="14" t="s">
         <v>406</v>
@@ -14254,7 +14254,7 @@
         <v>189</v>
       </c>
       <c r="F368" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G368" s="14" t="s">
         <v>393</v>
@@ -14283,7 +14283,7 @@
         <v>197</v>
       </c>
       <c r="F369" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G369" s="14" t="s">
         <v>424</v>
@@ -14312,7 +14312,7 @@
         <v>210</v>
       </c>
       <c r="F370" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G370" s="14" t="s">
         <v>279</v>
@@ -14341,7 +14341,7 @@
         <v>189</v>
       </c>
       <c r="F371" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G371" s="14" t="s">
         <v>396</v>
@@ -14370,7 +14370,7 @@
         <v>208</v>
       </c>
       <c r="F372" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G372" s="14" t="s">
         <v>280</v>
@@ -14399,7 +14399,7 @@
         <v>211</v>
       </c>
       <c r="F373" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G373" s="14" t="s">
         <v>345</v>
@@ -14408,7 +14408,7 @@
         <v>340</v>
       </c>
       <c r="I373" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14428,7 +14428,7 @@
         <v>201</v>
       </c>
       <c r="F374" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G374" s="14" t="s">
         <v>281</v>
@@ -14457,7 +14457,7 @@
         <v>214</v>
       </c>
       <c r="F375" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G375" s="14" t="s">
         <v>362</v>
@@ -14486,7 +14486,7 @@
         <v>219</v>
       </c>
       <c r="F376" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G376" s="14" t="s">
         <v>364</v>
@@ -14515,7 +14515,7 @@
         <v>220</v>
       </c>
       <c r="F377" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G377" s="14" t="s">
         <v>341</v>
@@ -14544,7 +14544,7 @@
         <v>189</v>
       </c>
       <c r="F378" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G378" s="14" t="s">
         <v>392</v>
@@ -14553,7 +14553,7 @@
         <v>340</v>
       </c>
       <c r="I378" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14573,7 +14573,7 @@
         <v>214</v>
       </c>
       <c r="F379" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G379" s="14" t="s">
         <v>439</v>
@@ -14602,7 +14602,7 @@
         <v>194</v>
       </c>
       <c r="F380" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G380" s="14" t="s">
         <v>282</v>
@@ -14631,7 +14631,7 @@
         <v>201</v>
       </c>
       <c r="F381" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G381" s="14" t="s">
         <v>283</v>
@@ -14640,7 +14640,7 @@
         <v>340</v>
       </c>
       <c r="I381" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14660,7 +14660,7 @@
         <v>208</v>
       </c>
       <c r="F382" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G382" s="14" t="s">
         <v>284</v>
@@ -14689,7 +14689,7 @@
         <v>192</v>
       </c>
       <c r="F383" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G383" s="14" t="s">
         <v>285</v>
@@ -14718,7 +14718,7 @@
         <v>192</v>
       </c>
       <c r="F384" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G384" s="14" t="s">
         <v>286</v>
@@ -14747,7 +14747,7 @@
         <v>193</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G385" s="14" t="s">
         <v>287</v>
@@ -14776,7 +14776,7 @@
         <v>221</v>
       </c>
       <c r="F386" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G386" s="14" t="s">
         <v>366</v>
@@ -14805,7 +14805,7 @@
         <v>189</v>
       </c>
       <c r="F387" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G387" s="14" t="s">
         <v>400</v>
@@ -14814,7 +14814,7 @@
         <v>340</v>
       </c>
       <c r="I387" s="22" t="s">
-        <v>573</v>
+        <v>848</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14834,7 +14834,7 @@
         <v>205</v>
       </c>
       <c r="F388" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G388" s="14" t="s">
         <v>391</v>
@@ -14863,7 +14863,7 @@
         <v>197</v>
       </c>
       <c r="F389" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G389" s="14" t="s">
         <v>423</v>
@@ -14892,7 +14892,7 @@
         <v>217</v>
       </c>
       <c r="F390" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G390" s="14" t="s">
         <v>354</v>
@@ -14921,7 +14921,7 @@
         <v>195</v>
       </c>
       <c r="F391" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G391" s="14" t="s">
         <v>288</v>
@@ -14950,7 +14950,7 @@
         <v>195</v>
       </c>
       <c r="F392" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G392" s="14" t="s">
         <v>289</v>
@@ -14979,7 +14979,7 @@
         <v>220</v>
       </c>
       <c r="F393" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G393" s="14" t="s">
         <v>290</v>
@@ -14988,7 +14988,7 @@
         <v>340</v>
       </c>
       <c r="I393" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,7 +15008,7 @@
         <v>197</v>
       </c>
       <c r="F394" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G394" s="14" t="s">
         <v>422</v>
@@ -15037,7 +15037,7 @@
         <v>202</v>
       </c>
       <c r="F395" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G395" s="14" t="s">
         <v>410</v>
@@ -15046,7 +15046,7 @@
         <v>340</v>
       </c>
       <c r="I395" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15066,7 +15066,7 @@
         <v>219</v>
       </c>
       <c r="F396" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G396" s="14" t="s">
         <v>363</v>
@@ -15095,7 +15095,7 @@
         <v>204</v>
       </c>
       <c r="F397" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G397" s="14" t="s">
         <v>382</v>
@@ -15124,7 +15124,7 @@
         <v>202</v>
       </c>
       <c r="F398" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G398" s="14" t="s">
         <v>411</v>
@@ -15133,7 +15133,7 @@
         <v>340</v>
       </c>
       <c r="I398" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15153,7 +15153,7 @@
         <v>222</v>
       </c>
       <c r="F399" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G399" s="14" t="s">
         <v>369</v>
@@ -15182,7 +15182,7 @@
         <v>194</v>
       </c>
       <c r="F400" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G400" s="14" t="s">
         <v>291</v>
@@ -15211,7 +15211,7 @@
         <v>202</v>
       </c>
       <c r="F401" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G401" s="14" t="s">
         <v>409</v>
@@ -15240,7 +15240,7 @@
         <v>223</v>
       </c>
       <c r="F402" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G402" s="14" t="s">
         <v>292</v>
@@ -15269,7 +15269,7 @@
         <v>192</v>
       </c>
       <c r="F403" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G403" s="14" t="s">
         <v>293</v>
@@ -15278,7 +15278,7 @@
         <v>340</v>
       </c>
       <c r="I403" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15298,7 +15298,7 @@
         <v>202</v>
       </c>
       <c r="F404" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G404" s="14" t="s">
         <v>412</v>
@@ -15327,7 +15327,7 @@
         <v>193</v>
       </c>
       <c r="F405" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G405" s="14" t="s">
         <v>431</v>
@@ -15345,39 +15345,39 @@
     <sortCondition ref="A1:A406"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A406:B1048576 K4:XFD44 I209:XFD241 J242:XFD1048576 H3:H1048576 I3:XFD3 H1:XFD2 F1:F1048576 D1:D1048576 A2:A405">
-    <cfRule type="cellIs" dxfId="0" priority="1265" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A406:B1048576 H1:XFD2 D1:D1048576 F1:F1048576 A2:A405 I3:XFD3 H3:H1048576 K4:XFD44 I209:XFD241 J242:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1265" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B44 B209:B405">
-    <cfRule type="cellIs" dxfId="7" priority="1027" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1027" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B405 B4:B44">
-    <cfRule type="duplicateValues" dxfId="6" priority="1026"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1026"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B406:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E235">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G405">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J208 I242:I371">
-    <cfRule type="cellIs" dxfId="1" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
